--- a/output/Graphs.xlsx
+++ b/output/Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -120,8 +120,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1031,241 +1059,181 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,11 +1248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456595880"/>
-        <c:axId val="456596272"/>
+        <c:axId val="329314112"/>
+        <c:axId val="329318032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456595880"/>
+        <c:axId val="329314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,12 +1309,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456596272"/>
+        <c:crossAx val="329318032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456596272"/>
+        <c:axId val="329318032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456595880"/>
+        <c:crossAx val="329314112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2376,247 +2344,247 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.0801768408039156</c:v>
+                  <c:v>1.7639291226608866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0349176553963502</c:v>
+                  <c:v>1.7532885003619347</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.773082121654572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7421265091811147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8240126214156096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9825110305281921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.01328789604757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9860147822253207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9860147822253207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8559399500352105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8740155198711546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8479497330793391</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.865890394298412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7819402568955993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7522750267600142</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7321170861205835</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7906934410275113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7810737242275456</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.732632208176744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7892142474591701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6729153777641685</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.674344156121427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6985825376185935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6984684068422888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6260148764007976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5883094999402225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5663544279668953</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5964278423187543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6058013781822196</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6071972708877729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6200349772179077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5853270945399076</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6502207580889028</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5989282896550483</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3961502124049876</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4157673205775854</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6440309330698302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5745219552552314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3559857544597673</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3381765095497082</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3365637088481137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3546246640291197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2795967159783534</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2973340939546945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3088777728553367</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2190618640544675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2158028810001618</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2041490763241858</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2414096241708263</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2513338261663423</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2697881877800379</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2901886443170669</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5210566169199027</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4973694123342696</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.413946889422264</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3894143207143492</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4123279773305979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.37464539606863</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5220691856234512</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4698581975981666</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4520116251132289</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="70">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="74">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="76">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6020589912085637</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="79">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.3635264978087918</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4364966004201145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3389137912711913</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2887935496207013</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2095386692715229</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1812381007662593</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.294162545767253</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2815820535226026</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.2151762778123389</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3291080411916401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.2428187096677343</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.4286425589314291</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.1994645204705494</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.461659347325504</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.3549478516683846</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.363576698058717</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3429723210293538</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.2675113760209937</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.3559537309780272</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.377100779227191</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5366829502922768</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.3233227460750501</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.3369710064127229</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.0222757099179915</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.5835968601461141</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4759303424571455</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.3877283288397517</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.4839205265842181</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.4304780716727741</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2566544417166348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.2825200671546633</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1960942551314147</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.9429873701725739</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.2559905864760352</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1316506794384471</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.08667569407075</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2188642344030307</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.1590838132777677</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0836003413458819</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.3657645159255125</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.423142919874214</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.5451367818814445</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.4799042845260211</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.3379949190724763</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5380341003291986</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.4300900602919968</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.3580717429678586</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.41674248633855</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.4819126078078129</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.4253876692392997</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.4763841788325511</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.595256668120334</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.6569116955068095</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.4464332145674867</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.4866101842206825</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.5837372233836369</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.9639983043839981</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.6799149520667167</c:v>
-                </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.606399975872516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,11 +2599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455584128"/>
-        <c:axId val="455582560"/>
+        <c:axId val="329320776"/>
+        <c:axId val="329318424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455584128"/>
+        <c:axId val="329320776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,12 +2660,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455582560"/>
+        <c:crossAx val="329318424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455582560"/>
+        <c:axId val="329318424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455584128"/>
+        <c:crossAx val="329320776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3721,241 +3689,241 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64979591836734696</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.92458521870286581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.96226415094339623</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.94205443371378406</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.97368421052631582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91092436974789914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94007490636704116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98055364905056053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94740164106879865</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95022461814914649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96646483465300415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9733656174334141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99070967741935478</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94248366013071894</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93469980047161261</c:v>
+                  <c:v>0.96190821694177397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91381117471579454</c:v>
+                  <c:v>0.98185922760622435</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97768517273827127</c:v>
+                  <c:v>0.92156203790832103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98953211736716895</c:v>
+                  <c:v>0.88654507005022465</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91129392828400246</c:v>
+                  <c:v>0.91674863632299031</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9836740201038926</c:v>
+                  <c:v>0.9696417729204615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99310344827586206</c:v>
+                  <c:v>0.96494451736069686</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97180024892162375</c:v>
+                  <c:v>0.99623207679061598</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97548194372365604</c:v>
+                  <c:v>0.98164626659747101</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98226270373921376</c:v>
+                  <c:v>0.98304170661553214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97971527813425041</c:v>
+                  <c:v>0.89937203771195862</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97441982568518326</c:v>
+                  <c:v>0.88735342504112846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9325557553654561</c:v>
+                  <c:v>0.89921738010005436</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.95196987863107629</c:v>
+                  <c:v>0.82192633726678022</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97643821875618098</c:v>
+                  <c:v>0.86074143143737103</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99067350797260101</c:v>
+                  <c:v>0.8366285999273041</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99784316192461853</c:v>
+                  <c:v>0.91060804860075129</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.996263509764025</c:v>
+                  <c:v>0.8929242748548829</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95749476826011726</c:v>
+                  <c:v>0.97819235245643987</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.97248418840416884</c:v>
+                  <c:v>0.95952870319580386</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99602842549411508</c:v>
+                  <c:v>0.95554163890739507</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99753628165209718</c:v>
+                  <c:v>0.90913511732047003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9977190176489934</c:v>
+                  <c:v>0.89667818296959156</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.98516996000334545</c:v>
+                  <c:v>0.88889270791443398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99083225500163852</c:v>
+                  <c:v>0.83672885279511977</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99805451651583676</c:v>
+                  <c:v>0.99356949420772167</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99816053583091791</c:v>
+                  <c:v>0.97129983394022701</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99653279322117161</c:v>
+                  <c:v>0.96509752018101413</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99754639526624023</c:v>
+                  <c:v>0.98077745288765084</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99769977748235816</c:v>
+                  <c:v>0.96375094701030628</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99418446737692723</c:v>
+                  <c:v>0.98196223265451965</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99794620424476388</c:v>
+                  <c:v>0.91724380562264796</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99296546189236357</c:v>
+                  <c:v>0.98290234577924607</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99325278882008916</c:v>
+                  <c:v>0.95606029813576432</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99300647028367073</c:v>
+                  <c:v>0.97634128946204413</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.9862951794703082</c:v>
+                  <c:v>0.97540294297852048</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99897088796712186</c:v>
+                  <c:v>0.95869927658033682</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98266673175466224</c:v>
+                  <c:v>0.93084663688890867</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98477127832844713</c:v>
+                  <c:v>0.93938501978991518</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99331925696972434</c:v>
+                  <c:v>0.98395232616111195</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9949833992861904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99643314396741967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99505241068025063</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9975665460671933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.98989142584955203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99225552688829066</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99497987118908804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99621601394689563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99565782121445257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99596165009458493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99802769512163381</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99581156972494744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99403822325040547</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99484796963169331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99543779963798829</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99385961944740264</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99711115516313309</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99700111857095919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.996131112193957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.99684350089287077</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,11 +3938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456591568"/>
-        <c:axId val="456591176"/>
+        <c:axId val="329319992"/>
+        <c:axId val="329317248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456591568"/>
+        <c:axId val="329319992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,12 +3999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456591176"/>
+        <c:crossAx val="329317248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456591176"/>
+        <c:axId val="329317248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456591568"/>
+        <c:crossAx val="329319992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5066,247 +5034,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>8.7740527673080701E-2</c:v>
+                  <c:v>7.28387224756991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10346586485543199</c:v>
+                  <c:v>9.0056108888829201E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.5437078927074694E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.1414571120677501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.124182440751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.126304778731502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.19973429190543401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.17854257214000499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.17854257214000499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.21073770491803201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.20957439490571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.19817639577211499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.25198472314030201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.25080373775614401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.284680650312091</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.27577593613092699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.34188822180422002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.37043376424485303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.37688202013157002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.39177909204498101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8823017551187804E-3</c:v>
+                  <c:v>0.38176035058866498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.43512053582245103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.20498383659421E-2</c:v>
+                  <c:v>0.45259692790225198</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1395867500835102E-2</c:v>
+                  <c:v>0.46113199880896799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5163298467630799E-2</c:v>
+                  <c:v>0.49706863109073601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6102984622030698E-3</c:v>
+                  <c:v>0.54240480951387604</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2266057454800699E-2</c:v>
+                  <c:v>0.58162140032087495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.74400046507396E-2</c:v>
+                  <c:v>0.61417284806549</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6530311354153501E-2</c:v>
+                  <c:v>0.63636497673116499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.33793214523731E-2</c:v>
+                  <c:v>0.64276121381844098</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2460772123712599E-2</c:v>
+                  <c:v>0.63923438626589901</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.16645753203184E-2</c:v>
+                  <c:v>0.55831699635578003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.33176507327415E-2</c:v>
+                  <c:v>0.62299727561147</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4498137082432596E-3</c:v>
+                  <c:v>0.55102946829084798</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.23740561704765E-3</c:v>
+                  <c:v>0.37016921784024398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8762644320637302E-3</c:v>
+                  <c:v>0.47196247452739398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1804091586506599E-3</c:v>
+                  <c:v>0.58500888901721504</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.0266735557529504E-3</c:v>
+                  <c:v>0.62705193252929203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.6311946077978702E-3</c:v>
+                  <c:v>0.52296242838960305</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.1848581467490501E-3</c:v>
+                  <c:v>0.51206767850430901</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.50734389537639E-3</c:v>
+                  <c:v>0.51989792627436804</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6668484258173201E-3</c:v>
+                  <c:v>0.50478629682117704</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.67670132154811E-3</c:v>
+                  <c:v>0.43068426014634897</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9321347036879901E-3</c:v>
+                  <c:v>0.49188191866484299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.3439989464144301E-4</c:v>
+                  <c:v>0.44285116150609</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9131624794886902E-4</c:v>
+                  <c:v>0.52740284437046403</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.85133150724887E-4</c:v>
+                  <c:v>0.53102389627508295</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.59083304570237E-4</c:v>
+                  <c:v>0.51572603555028296</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.4835060898096699E-4</c:v>
+                  <c:v>0.53575830058040597</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.2679074324905901E-4</c:v>
+                  <c:v>0.55329168280743801</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.4501760240279402E-4</c:v>
+                  <c:v>0.57466501781127899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.0599730311189801E-3</c:v>
+                  <c:v>0.58109949486025902</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.25286915110603E-3</c:v>
+                  <c:v>0.63439664770309701</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.5671493003704499E-4</c:v>
+                  <c:v>0.62562372933501098</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6640043049624202E-4</c:v>
+                  <c:v>0.609879326137584</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.60535431039097E-4</c:v>
+                  <c:v>0.60450187140154499</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5879218727469798E-3</c:v>
+                  <c:v>0.59840688013594101</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.4924451686347202E-3</c:v>
+                  <c:v>0.58668276522082097</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7899302096547202E-3</c:v>
+                  <c:v>0.61710476299142203</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3314392194629201E-3</c:v>
+                  <c:v>0.55827687137350701</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2438972126810101E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2469361941132701E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2130934591321799E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.6579330591087704E-4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.0037327254056199E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.8324927947429703E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.8801691047893699E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.0969142055702401E-4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.4763052035855799E-4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.5599193324727698E-4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.6429250045324599E-4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.8124718710414797E-4</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.6813468232797397E-4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.13084632043464E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.0223658837036501E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.5191090678283401E-4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.9436958426729899E-5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.9208584399920399E-5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.3125876135049901E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.47931298027388E-4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8955522528070899E-4</c:v>
+                  <c:v>0.55580466366956405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5321,11 +5229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508471320"/>
-        <c:axId val="508470928"/>
+        <c:axId val="329320384"/>
+        <c:axId val="329314504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508471320"/>
+        <c:axId val="329320384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,12 +5290,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508470928"/>
+        <c:crossAx val="329314504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508470928"/>
+        <c:axId val="329314504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508471320"/>
+        <c:crossAx val="329320384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7858,16 +7766,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8154,8 +8062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8205,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,7 +8179,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,7 +8190,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,7 +8223,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,7 +8245,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,7 +8256,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,7 +8267,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,7 +8278,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,7 +8289,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,7 +8300,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,7 +8311,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,7 +8322,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,7 +8333,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,7 +8344,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,7 +8366,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,7 +8377,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,7 +8388,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,7 +8399,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,7 +8410,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,7 +8421,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,7 +8432,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,7 +8443,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,7 +8454,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,7 +8465,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,7 +8476,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,7 +8487,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,7 +8498,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,7 +8509,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,7 +8520,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,7 +8531,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,7 +8542,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,7 +8553,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,7 +8564,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,7 +8586,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,7 +8597,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,7 +8608,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,7 +8619,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,7 +8630,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,7 +8641,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,7 +8652,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,7 +8663,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,7 +8674,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,7 +8685,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,7 +8696,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,7 +8707,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,7 +8718,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="1">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,7 +8729,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,7 +8740,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,7 +8751,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="1">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,9 +8761,7 @@
       <c r="B63" s="1">
         <v>9</v>
       </c>
-      <c r="C63" s="1">
-        <v>7</v>
-      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -8864,9 +8770,7 @@
       <c r="B64" s="1">
         <v>10</v>
       </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -8875,9 +8779,7 @@
       <c r="B65" s="1">
         <v>11</v>
       </c>
-      <c r="C65" s="1">
-        <v>7</v>
-      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -8886,9 +8788,7 @@
       <c r="B66" s="1">
         <v>10</v>
       </c>
-      <c r="C66" s="1">
-        <v>6</v>
-      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -8897,9 +8797,7 @@
       <c r="B67" s="1">
         <v>14</v>
       </c>
-      <c r="C67" s="1">
-        <v>13</v>
-      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -8908,9 +8806,7 @@
       <c r="B68" s="1">
         <v>12</v>
       </c>
-      <c r="C68" s="1">
-        <v>11</v>
-      </c>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -8919,9 +8815,7 @@
       <c r="B69" s="1">
         <v>10</v>
       </c>
-      <c r="C69" s="1">
-        <v>8</v>
-      </c>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -8930,9 +8824,7 @@
       <c r="B70" s="1">
         <v>13</v>
       </c>
-      <c r="C70" s="1">
-        <v>8</v>
-      </c>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -8941,9 +8833,7 @@
       <c r="B71" s="1">
         <v>13</v>
       </c>
-      <c r="C71" s="1">
-        <v>13</v>
-      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -8952,9 +8842,7 @@
       <c r="B72" s="1">
         <v>9</v>
       </c>
-      <c r="C72" s="1">
-        <v>12</v>
-      </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -8963,9 +8851,7 @@
       <c r="B73" s="1">
         <v>11</v>
       </c>
-      <c r="C73" s="1">
-        <v>16</v>
-      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -8974,9 +8860,7 @@
       <c r="B74" s="1">
         <v>14</v>
       </c>
-      <c r="C74" s="1">
-        <v>20</v>
-      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -8985,9 +8869,7 @@
       <c r="B75" s="1">
         <v>14</v>
       </c>
-      <c r="C75" s="1">
-        <v>14</v>
-      </c>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -8996,9 +8878,7 @@
       <c r="B76" s="1">
         <v>10</v>
       </c>
-      <c r="C76" s="1">
-        <v>12</v>
-      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -9007,9 +8887,7 @@
       <c r="B77" s="1">
         <v>15</v>
       </c>
-      <c r="C77" s="1">
-        <v>15</v>
-      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -9018,9 +8896,7 @@
       <c r="B78" s="1">
         <v>17</v>
       </c>
-      <c r="C78" s="1">
-        <v>11</v>
-      </c>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -9029,9 +8905,7 @@
       <c r="B79" s="1">
         <v>16</v>
       </c>
-      <c r="C79" s="1">
-        <v>14</v>
-      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -9040,9 +8914,7 @@
       <c r="B80" s="1">
         <v>14</v>
       </c>
-      <c r="C80" s="1">
-        <v>15</v>
-      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -9051,9 +8923,7 @@
       <c r="B81" s="1">
         <v>11</v>
       </c>
-      <c r="C81" s="1">
-        <v>20</v>
-      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -9062,9 +8932,7 @@
       <c r="B82" s="1">
         <v>13</v>
       </c>
-      <c r="C82" s="1">
-        <v>20</v>
-      </c>
+      <c r="C82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9076,8 +8944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,10 +8981,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.209210271167203</v>
+        <v>0.196790525715968</v>
       </c>
       <c r="B2" s="1">
-        <v>0.10057331043371801</v>
+        <v>0.11156373756056</v>
       </c>
       <c r="C2" s="1">
         <v>0.198181539140597</v>
@@ -9134,15 +9002,15 @@
       </c>
       <c r="H2" s="1">
         <f>A2/B2</f>
-        <v>2.0801768408039156</v>
+        <v>1.7639291226608866</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.20993480276170101</v>
+        <v>0.198194111164196</v>
       </c>
       <c r="B3" s="1">
-        <v>0.103166239776327</v>
+        <v>0.113041356926303</v>
       </c>
       <c r="C3" s="1">
         <v>0.21542027689071599</v>
@@ -9160,15 +9028,15 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" si="1">A3/B3</f>
-        <v>2.0349176553963502</v>
+        <v>1.7532885003619347</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.174226285280911</v>
+        <v>0.20009088073487699</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.11284918971951501</v>
       </c>
       <c r="C4" s="1">
         <v>0.201702324229384</v>
@@ -9184,17 +9052,17 @@
         <f t="shared" si="0"/>
         <v>1.3325201327965499</v>
       </c>
-      <c r="H4" s="1" t="e">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.773082121654572</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.174836654479646</v>
+        <v>0.19965976836149699</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.11460692854926301</v>
       </c>
       <c r="C5" s="1">
         <v>0.20747192385212301</v>
@@ -9210,17 +9078,17 @@
         <f t="shared" si="0"/>
         <v>1.4549956623442686</v>
       </c>
-      <c r="H5" s="1" t="e">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7421265091811147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.17122296800067699</v>
+        <v>0.20310533911512099</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>0.111350840849715</v>
       </c>
       <c r="C6" s="1">
         <v>0.20510970760248101</v>
@@ -9236,17 +9104,17 @@
         <f t="shared" si="0"/>
         <v>1.5000232520869956</v>
       </c>
-      <c r="H6" s="1" t="e">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8240126214156096</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.18170804570385601</v>
+        <v>0.22219581918728901</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>0.11207797372410599</v>
       </c>
       <c r="C7" s="1">
         <v>0.217453389090072</v>
@@ -9262,17 +9130,17 @@
         <f t="shared" si="0"/>
         <v>1.488317685209912</v>
       </c>
-      <c r="H7" s="1" t="e">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9825110305281921</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.163413586691564</v>
+        <v>0.20882165585286</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>0.103721706300829</v>
       </c>
       <c r="C8" s="1">
         <v>0.21350022395267601</v>
@@ -9288,17 +9156,17 @@
         <f t="shared" si="0"/>
         <v>1.5494640117549638</v>
       </c>
-      <c r="H8" s="1" t="e">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.01328789604757</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.15899586525826601</v>
+        <v>0.20106394174748901</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>0.10123990191160499</v>
       </c>
       <c r="C9" s="1">
         <v>0.21491951161968401</v>
@@ -9314,17 +9182,17 @@
         <f t="shared" si="0"/>
         <v>1.7071329284585486</v>
       </c>
-      <c r="H9" s="1" t="e">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9860147822253207</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.15899586525826601</v>
+        <v>0.20106394174748901</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>0.10123990191160499</v>
       </c>
       <c r="C10" s="1">
         <v>0.21491951161968401</v>
@@ -9340,17 +9208,17 @@
         <f t="shared" si="0"/>
         <v>1.7071329284585486</v>
       </c>
-      <c r="H10" s="1" t="e">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9860147822253207</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.15407084905822399</v>
+        <v>0.194136073410133</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>0.10460256184821599</v>
       </c>
       <c r="C11" s="1">
         <v>0.19919388819013401</v>
@@ -9366,17 +9234,17 @@
         <f t="shared" si="0"/>
         <v>1.6021300096043201</v>
       </c>
-      <c r="H11" s="1" t="e">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8559399500352105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.152230700422746</v>
+        <v>0.192367528860998</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>0.10264991235196599</v>
       </c>
       <c r="C12" s="1">
         <v>0.198721663701832</v>
@@ -9392,17 +9260,17 @@
         <f t="shared" si="0"/>
         <v>1.6149530166282509</v>
       </c>
-      <c r="H12" s="1" t="e">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8740155198711546</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.14962012440563099</v>
+        <v>0.18636549216203799</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.10084987098187299</v>
       </c>
       <c r="C13" s="1">
         <v>0.191501632475294</v>
@@ -9418,17 +9286,17 @@
         <f t="shared" si="0"/>
         <v>1.5516812493144805</v>
       </c>
-      <c r="H13" s="1" t="e">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8479497330793391</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.14258367133175101</v>
+        <v>0.190830719082101</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>0.102273273749209</v>
       </c>
       <c r="C14" s="1">
         <v>0.18400138212666101</v>
@@ -9444,17 +9312,17 @@
         <f t="shared" si="0"/>
         <v>1.5647230193955823</v>
       </c>
-      <c r="H14" s="1" t="e">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.865890394298412</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.137854149391091</v>
+        <v>0.180205731692508</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>0.101128941329634</v>
       </c>
       <c r="C15" s="1">
         <v>0.19210224532356801</v>
@@ -9470,17 +9338,17 @@
         <f t="shared" si="0"/>
         <v>1.7611523370538096</v>
       </c>
-      <c r="H15" s="1" t="e">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7819402568955993</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.137237284082462</v>
+        <v>0.17858181524642</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>0.10191426147105501</v>
       </c>
       <c r="C16" s="1">
         <v>0.17749016466165199</v>
@@ -9496,17 +9364,17 @@
         <f t="shared" si="0"/>
         <v>1.5269334034539925</v>
       </c>
-      <c r="H16" s="1" t="e">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7522750267600142</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.138656436513761</v>
+        <v>0.183563571956121</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>0.10597642239489</v>
       </c>
       <c r="C17" s="1">
         <v>0.17980927701760799</v>
@@ -9522,17 +9390,17 @@
         <f t="shared" si="0"/>
         <v>1.5587833191777005</v>
       </c>
-      <c r="H17" s="1" t="e">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7321170861205835</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.13354978524032701</v>
+        <v>0.17852731658100901</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>9.9697308590446898E-2</v>
       </c>
       <c r="C18" s="1">
         <v>0.18836409683880401</v>
@@ -9548,17 +9416,17 @@
         <f t="shared" si="0"/>
         <v>1.8104719053538625</v>
       </c>
-      <c r="H18" s="1" t="e">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7906934410275113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.131610125726906</v>
+        <v>0.18217481836682201</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>0.10228370442432499</v>
       </c>
       <c r="C19" s="1">
         <v>0.19015479517186201</v>
@@ -9574,17 +9442,17 @@
         <f t="shared" si="0"/>
         <v>1.9028205113673189</v>
       </c>
-      <c r="H19" s="1" t="e">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7810737242275456</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.131358417842833</v>
+        <v>0.180244264119898</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>0.10402915475614399</v>
       </c>
       <c r="C20" s="1">
         <v>0.18746218765405601</v>
@@ -9600,17 +9468,17 @@
         <f t="shared" si="0"/>
         <v>1.8512969354083628</v>
       </c>
-      <c r="H20" s="1" t="e">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.732632208176744</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.12994607148005599</v>
+        <v>0.181884919058522</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>0.101656310481997</v>
       </c>
       <c r="C21" s="1">
         <v>0.18693499252049101</v>
@@ -9626,17 +9494,17 @@
         <f t="shared" si="0"/>
         <v>1.8750063507096424</v>
       </c>
-      <c r="H21" s="1" t="e">
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.7892142474591701</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.12933156907079801</v>
+        <v>0.16994684185752301</v>
       </c>
       <c r="B22" s="1">
-        <v>8.07283438253623E-2</v>
+        <v>0.10158723155779401</v>
       </c>
       <c r="C22" s="1">
         <v>0.18411311328842001</v>
@@ -9654,15 +9522,15 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>1.6020589912085637</v>
+        <v>1.6729153777641685</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0.124825061624654</v>
+        <v>0.170061264757292</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>0.101568882440056</v>
       </c>
       <c r="C23" s="1">
         <v>0.17450028543036999</v>
@@ -9678,17 +9546,17 @@
         <f t="shared" si="0"/>
         <v>1.7658700357151684</v>
       </c>
-      <c r="H23" s="1" t="e">
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.674344156121427</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.12906952723713599</v>
+        <v>0.174550646578605</v>
       </c>
       <c r="B24" s="1">
-        <v>9.4658613121602495E-2</v>
+        <v>0.102762534473788</v>
       </c>
       <c r="C24" s="1">
         <v>0.17917836701322201</v>
@@ -9706,15 +9574,15 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>1.3635264978087918</v>
+        <v>1.6985825376185935</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.128956181008374</v>
+        <v>0.17231258878358899</v>
       </c>
       <c r="B25" s="1">
-        <v>8.9771309567081306E-2</v>
+        <v>0.101451747992148</v>
       </c>
       <c r="C25" s="1">
         <v>0.175006579071945</v>
@@ -9732,15 +9600,15 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>1.4364966004201145</v>
+        <v>1.6984684068422888</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.12933923898430899</v>
+        <v>0.166140052302332</v>
       </c>
       <c r="B26" s="1">
-        <v>9.6600124539393803E-2</v>
+        <v>0.102176219119277</v>
       </c>
       <c r="C26" s="1">
         <v>0.16868116855554099</v>
@@ -9758,15 +9626,15 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>1.3389137912711913</v>
+        <v>1.6260148764007976</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.12525821929294301</v>
+        <v>0.17029216991099999</v>
       </c>
       <c r="B27" s="1">
-        <v>9.7190290353181205E-2</v>
+        <v>0.107215986504777</v>
       </c>
       <c r="C27" s="1">
         <v>0.16335306866103499</v>
@@ -9784,15 +9652,15 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>1.2887935496207013</v>
+        <v>1.5883094999402225</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.12677008177506499</v>
+        <v>0.17374374202835599</v>
       </c>
       <c r="B28" s="1">
-        <v>0.10480862249027199</v>
+        <v>0.110922367841021</v>
       </c>
       <c r="C28" s="1">
         <v>0.16350051285888501</v>
@@ -9810,15 +9678,15 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>1.2095386692715229</v>
+        <v>1.5663544279668953</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.12746580368329499</v>
+        <v>0.180487368668588</v>
       </c>
       <c r="B29" s="1">
-        <v>0.10790864568338</v>
+        <v>0.11305701634872301</v>
       </c>
       <c r="C29" s="1">
         <v>0.15923738662224499</v>
@@ -9836,15 +9704,15 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>1.1812381007662593</v>
+        <v>1.5964278423187543</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.12653486980217701</v>
+        <v>0.17955821905333899</v>
       </c>
       <c r="B30" s="1">
-        <v>9.7773552646866296E-2</v>
+        <v>0.11181844871537</v>
       </c>
       <c r="C30" s="1">
         <v>0.15059752527689099</v>
@@ -9862,15 +9730,15 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>1.294162545767253</v>
+        <v>1.6058013781822196</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.12861778438361801</v>
+        <v>0.184293024001626</v>
       </c>
       <c r="B31" s="1">
-        <v>0.100358602892491</v>
+        <v>0.114667332591865</v>
       </c>
       <c r="C31" s="1">
         <v>0.17109495816685899</v>
@@ -9888,15 +9756,15 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>1.2815820535226026</v>
+        <v>1.6071972708877729</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.12753612161001601</v>
+        <v>0.18456822184096999</v>
       </c>
       <c r="B32" s="1">
-        <v>0.104952774291823</v>
+        <v>0.11392854131947799</v>
       </c>
       <c r="C32" s="1">
         <v>0.16457241850174101</v>
@@ -9914,15 +9782,15 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>1.2151762778123389</v>
+        <v>1.6200349772179077</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.12957403520444399</v>
+        <v>0.17715608565656901</v>
       </c>
       <c r="B33" s="1">
-        <v>9.7489467514071795E-2</v>
+        <v>0.11174733988129</v>
       </c>
       <c r="C33" s="1">
         <v>0.162040904780375</v>
@@ -9940,15 +9808,15 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>1.3291080411916401</v>
+        <v>1.5853270945399076</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>0.130366396931479</v>
+        <v>0.18958225441769999</v>
       </c>
       <c r="B34" s="1">
-        <v>0.104895746996223</v>
+        <v>0.11488296549926599</v>
       </c>
       <c r="C34" s="1">
         <v>0.17311618363787101</v>
@@ -9966,15 +9834,15 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>1.2428187096677343</v>
+        <v>1.6502207580889028</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0.133301104240864</v>
+        <v>0.17962316659827099</v>
       </c>
       <c r="B35" s="1">
-        <v>9.33061271397152E-2</v>
+        <v>0.112339726403254</v>
       </c>
       <c r="C35" s="1">
         <v>0.176620076480343</v>
@@ -9992,15 +9860,15 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>1.4286425589314291</v>
+        <v>1.5989282896550483</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.13129643802896701</v>
+        <v>0.15511552115747301</v>
       </c>
       <c r="B36" s="1">
-        <v>0.109462544150501</v>
+        <v>0.11110231533774099</v>
       </c>
       <c r="C36" s="1">
         <v>0.174610993778477</v>
@@ -10018,15 +9886,15 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>1.1994645204705494</v>
+        <v>1.3961502124049876</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0.13275312097046299</v>
+        <v>0.161470263766443</v>
       </c>
       <c r="B37" s="1">
-        <v>9.08235706311257E-2</v>
+        <v>0.114051413265118</v>
       </c>
       <c r="C37" s="1">
         <v>0.160830656809686</v>
@@ -10044,15 +9912,15 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>1.461659347325504</v>
+        <v>1.4157673205775854</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0.13156854085160999</v>
+        <v>0.18933384386970101</v>
       </c>
       <c r="B38" s="1">
-        <v>9.71022911985919E-2</v>
+        <v>0.11516440479387199</v>
       </c>
       <c r="C38" s="1">
         <v>0.158975920890077</v>
@@ -10070,15 +9938,15 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>1.3549478516683846</v>
+        <v>1.6440309330698302</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0.133109992856034</v>
+        <v>0.19049521794757401</v>
       </c>
       <c r="B39" s="1">
-        <v>9.7618266024594502E-2</v>
+        <v>0.120986066476726</v>
       </c>
       <c r="C39" s="1">
         <v>0.169070198611462</v>
@@ -10096,15 +9964,15 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>1.363576698058717</v>
+        <v>1.5745219552552314</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0.132534018765084</v>
+        <v>0.162193006228812</v>
       </c>
       <c r="B40" s="1">
-        <v>9.8687081401275703E-2</v>
+        <v>0.119612618123286</v>
       </c>
       <c r="C40" s="1">
         <v>0.16833981154869601</v>
@@ -10122,15 +9990,15 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>1.3429723210293538</v>
+        <v>1.3559857544597673</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>0.131241420580368</v>
+        <v>0.159201013484987</v>
       </c>
       <c r="B41" s="1">
-        <v>0.103542597773256</v>
+        <v>0.11896862061833501</v>
       </c>
       <c r="C41" s="1">
         <v>0.155696808875146</v>
@@ -10148,15 +10016,15 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>1.2675113760209937</v>
+        <v>1.3381765095497082</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>0.130136775652619</v>
+        <v>0.15989510384820399</v>
       </c>
       <c r="B42" s="1">
-        <v>9.5974348297823905E-2</v>
+        <v>0.11963148691655399</v>
       </c>
       <c r="C42" s="1">
         <v>0.155552855496188</v>
@@ -10174,15 +10042,15 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>1.3559537309780272</v>
+        <v>1.3365637088481137</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>0.12901689264264299</v>
+        <v>0.15842171562486801</v>
       </c>
       <c r="B43" s="1">
-        <v>9.3687328181634902E-2</v>
+        <v>0.116948790193785</v>
       </c>
       <c r="C43" s="1">
         <v>0.156544005366658</v>
@@ -10200,15 +10068,15 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>1.377100779227191</v>
+        <v>1.3546246640291197</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0.12934474252988701</v>
+        <v>0.15040427296612399</v>
       </c>
       <c r="B44" s="1">
-        <v>8.4171391701382298E-2</v>
+        <v>0.117540371187283</v>
       </c>
       <c r="C44" s="1">
         <v>0.155244588697806</v>
@@ -10226,15 +10094,15 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>1.5366829502922768</v>
+        <v>1.2795967159783534</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0.12875774773659401</v>
+        <v>0.154024594829897</v>
       </c>
       <c r="B45" s="1">
-        <v>9.7298824582655305E-2</v>
+        <v>0.118723924351961</v>
       </c>
       <c r="C45" s="1">
         <v>0.15726390376816199</v>
@@ -10252,15 +10120,15 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="1"/>
-        <v>1.3233227460750501</v>
+        <v>1.2973340939546945</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0.12845268238787699</v>
+        <v>0.15208735009067301</v>
       </c>
       <c r="B46" s="1">
-        <v>9.6077388194477906E-2</v>
+        <v>0.11619675514765</v>
       </c>
       <c r="C46" s="1">
         <v>0.143544042601676</v>
@@ -10278,15 +10146,15 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="1"/>
-        <v>1.3369710064127229</v>
+        <v>1.3088777728553367</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>0.12825834494841401</v>
+        <v>0.148182509613493</v>
       </c>
       <c r="B47" s="1">
-        <v>6.3422778763245494E-2</v>
+        <v>0.121554544509049</v>
       </c>
       <c r="C47" s="1">
         <v>0.147033980866001</v>
@@ -10304,15 +10172,15 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="1"/>
-        <v>2.0222757099179915</v>
+        <v>1.2190618640544675</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0.127105916308655</v>
+        <v>0.14656006434407201</v>
       </c>
       <c r="B48" s="1">
-        <v>8.0264061837636694E-2</v>
+        <v>0.120545909731277</v>
       </c>
       <c r="C48" s="1">
         <v>0.14958318081540101</v>
@@ -10330,15 +10198,15 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" si="1"/>
-        <v>1.5835968601461141</v>
+        <v>1.2158028810001618</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>0.12649030627431501</v>
+        <v>0.14435855199470399</v>
       </c>
       <c r="B49" s="1">
-        <v>8.5702084058880801E-2</v>
+        <v>0.11988428578575699</v>
       </c>
       <c r="C49" s="1">
         <v>0.152297501988405</v>
@@ -10356,15 +10224,15 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>1.4759303424571455</v>
+        <v>1.2041490763241858</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>0.124087873446372</v>
+        <v>0.14562979678496199</v>
       </c>
       <c r="B50" s="1">
-        <v>8.9417986840492805E-2</v>
+        <v>0.117310027205752</v>
       </c>
       <c r="C50" s="1">
         <v>0.14847121179610601</v>
@@ -10382,15 +10250,15 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>1.3877283288397517</v>
+        <v>1.2414096241708263</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0.122978803428425</v>
+        <v>0.14543841769600399</v>
       </c>
       <c r="B51" s="1">
-        <v>8.2874251838476395E-2</v>
+        <v>0.116226713171798</v>
       </c>
       <c r="C51" s="1">
         <v>0.147472036392819</v>
@@ -10408,15 +10276,15 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>1.4839205265842181</v>
+        <v>1.2513338261663423</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0.12122561338273399</v>
+        <v>0.14619434306630699</v>
       </c>
       <c r="B52" s="1">
-        <v>8.4744824673177302E-2</v>
+        <v>0.11513285796263199</v>
       </c>
       <c r="C52" s="1">
         <v>0.14568583967655899</v>
@@ -10434,15 +10302,15 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>1.4304780716727741</v>
+        <v>1.2697881877800379</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0.119582140267529</v>
+        <v>0.14673687853117201</v>
       </c>
       <c r="B53" s="1">
-        <v>9.5159127519714601E-2</v>
+        <v>0.11373288640968</v>
       </c>
       <c r="C53" s="1">
         <v>0.14648216933311001</v>
@@ -10460,15 +10328,15 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>1.2566544417166348</v>
+        <v>1.2901886443170669</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0.117569186911121</v>
+        <v>0.16998217725089301</v>
       </c>
       <c r="B54" s="1">
-        <v>9.1670446273760295E-2</v>
+        <v>0.11175269569853501</v>
       </c>
       <c r="C54" s="1">
         <v>0.14348631044701299</v>
@@ -10486,15 +10354,15 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>1.2825200671546633</v>
+        <v>1.5210566169199027</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0.11597300221222399</v>
+        <v>0.16604927646461701</v>
       </c>
       <c r="B55" s="1">
-        <v>9.6959751888016601E-2</v>
+        <v>0.11089399522711001</v>
       </c>
       <c r="C55" s="1">
         <v>0.14212490946455</v>
@@ -10512,15 +10380,15 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>1.1960942551314147</v>
+        <v>1.4973694123342696</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0.11437885519990899</v>
+        <v>0.15385521558565701</v>
       </c>
       <c r="B56" s="1">
-        <v>5.8867523770754097E-2</v>
+        <v>0.108812584642781</v>
       </c>
       <c r="C56" s="1">
         <v>0.141683698019863</v>
@@ -10538,15 +10406,15 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>1.9429873701725739</v>
+        <v>1.413946889422264</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0.11373182223101699</v>
+        <v>0.15046289491544701</v>
       </c>
       <c r="B57" s="1">
-        <v>9.0551492547501694E-2</v>
+        <v>0.108292316173975</v>
       </c>
       <c r="C57" s="1">
         <v>0.13789788749221801</v>
@@ -10564,15 +10432,15 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>1.2559905864760352</v>
+        <v>1.3894143207143492</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0.11306166755817</v>
+        <v>0.15124954800784199</v>
       </c>
       <c r="B58" s="1">
-        <v>9.9908628707114797E-2</v>
+        <v>0.10709236837020999</v>
       </c>
       <c r="C58" s="1">
         <v>0.14018972042264699</v>
@@ -10590,15 +10458,15 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="1"/>
-        <v>1.1316506794384471</v>
+        <v>1.4123279773305979</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0.111765985713011</v>
+        <v>0.14524056136610899</v>
       </c>
       <c r="B59" s="1">
-        <v>0.102851279662223</v>
+        <v>0.10565674739208</v>
       </c>
       <c r="C59" s="1">
         <v>0.135281511542794</v>
@@ -10616,15 +10484,15 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="1"/>
-        <v>1.08667569407075</v>
+        <v>1.37464539606863</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0.110835392818098</v>
+        <v>0.16012670351066699</v>
       </c>
       <c r="B60" s="1">
-        <v>9.0933337520058097E-2</v>
+        <v>0.105203301547083</v>
       </c>
       <c r="C60" s="1">
         <v>0.13465431670067099</v>
@@ -10642,15 +10510,15 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="1"/>
-        <v>1.2188642344030307</v>
+        <v>1.5220691856234512</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0.108473594225237</v>
+        <v>0.14929673421584</v>
       </c>
       <c r="B61" s="1">
-        <v>9.3585634604356205E-2</v>
+        <v>0.101572202311624</v>
       </c>
       <c r="C61" s="1">
         <v>0.13074911867571701</v>
@@ -10668,15 +10536,15 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="1"/>
-        <v>1.1590838132777677</v>
+        <v>1.4698581975981666</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>0.106614309911379</v>
+        <v>0.145070135604113</v>
       </c>
       <c r="B62" s="1">
-        <v>9.8388959326977596E-2</v>
+        <v>9.9909761805660705E-2</v>
       </c>
       <c r="C62" s="1">
         <v>0.12433309991507401</v>
@@ -10694,16 +10562,10 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="1"/>
-        <v>1.0836003413458819</v>
+        <v>1.4520116251132289</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0.103898993215883</v>
-      </c>
-      <c r="B63" s="1">
-        <v>7.6073870718097902E-2</v>
-      </c>
       <c r="C63" s="1">
         <v>0.12772707640522399</v>
       </c>
@@ -10718,18 +10580,12 @@
         <f t="shared" si="0"/>
         <v>1.3493106285330669</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.3657645159255125</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>0.101194745317657</v>
-      </c>
-      <c r="B64" s="1">
-        <v>7.1106523388811294E-2</v>
-      </c>
       <c r="C64" s="1">
         <v>0.123125792367374</v>
       </c>
@@ -10744,18 +10600,12 @@
         <f t="shared" si="0"/>
         <v>1.3397860367990511</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.423142919874214</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>9.7965328200528695E-2</v>
-      </c>
-      <c r="B65" s="1">
-        <v>6.3402366281929204E-2</v>
-      </c>
       <c r="C65" s="1">
         <v>0.11858695197291901</v>
       </c>
@@ -10770,18 +10620,14 @@
         <f t="shared" si="0"/>
         <v>1.3274235600114175</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.5451367818814445</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>9.5629223179652806E-2</v>
-      </c>
-      <c r="B66" s="1">
-        <v>6.4618519035020305E-2</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="1">
         <v>0.11553487828615699</v>
       </c>
@@ -10796,18 +10642,14 @@
         <f t="shared" si="0"/>
         <v>1.3273134492028944</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.4799042845260211</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>9.3196917838880802E-2</v>
-      </c>
-      <c r="B67" s="1">
-        <v>6.9654164235157703E-2</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="1">
         <v>0.115262710655747</v>
       </c>
@@ -10822,18 +10664,14 @@
         <f t="shared" ref="G67:G82" si="2">C67/D67</f>
         <v>1.38455572591961</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="1" t="e">
         <f t="shared" ref="H67:H82" si="3">A67/B67</f>
-        <v>1.3379949190724763</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>9.1185186579874802E-2</v>
-      </c>
-      <c r="B68" s="1">
-        <v>5.92868432243197E-2</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="1">
         <v>0.113326207002337</v>
       </c>
@@ -10848,18 +10686,14 @@
         <f t="shared" si="2"/>
         <v>1.38702112174354</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.5380341003291986</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>8.9389505636748495E-2</v>
-      </c>
-      <c r="B69" s="1">
-        <v>6.2506207209423501E-2</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1">
         <v>0.11345235302724201</v>
       </c>
@@ -10874,18 +10708,14 @@
         <f t="shared" si="2"/>
         <v>1.4185596339554816</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4300900602919968</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>8.75904850284384E-2</v>
-      </c>
-      <c r="B70" s="1">
-        <v>6.4496213459992E-2</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1">
         <v>0.10806346715682601</v>
       </c>
@@ -10900,18 +10730,14 @@
         <f t="shared" si="2"/>
         <v>1.3641887598071034</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.3580717429678586</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>8.6571796518978006E-2</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6.1106233033721903E-2</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="1">
         <v>0.105815333192031</v>
       </c>
@@ -10926,18 +10752,14 @@
         <f t="shared" si="2"/>
         <v>1.3449520061201652</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.41674248633855</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>8.5437937633890904E-2</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5.7653830046212301E-2</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1">
         <v>0.102321683135842</v>
       </c>
@@ -10952,18 +10774,14 @@
         <f t="shared" si="2"/>
         <v>1.3135143120064692</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4819126078078129</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>8.4476921296709195E-2</v>
-      </c>
-      <c r="B73" s="1">
-        <v>5.9265926821011998E-2</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1">
         <v>0.10421460619389999</v>
       </c>
@@ -10978,18 +10796,14 @@
         <f t="shared" si="2"/>
         <v>1.3808469583391385</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4253876692392997</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>8.3375006324614906E-2</v>
-      </c>
-      <c r="B74" s="1">
-        <v>5.6472432798991098E-2</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1">
         <v>9.9863633460092902E-2</v>
       </c>
@@ -11004,18 +10818,14 @@
         <f t="shared" si="2"/>
         <v>1.3400456412141033</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4763841788325511</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>8.2153011817958602E-2</v>
-      </c>
-      <c r="B75" s="1">
-        <v>5.1498303351245799E-2</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1">
         <v>9.9935664387858697E-2</v>
       </c>
@@ -11030,18 +10840,14 @@
         <f t="shared" si="2"/>
         <v>1.3739004728430932</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.595256668120334</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>8.0660321317709102E-2</v>
-      </c>
-      <c r="B76" s="1">
-        <v>4.8681122558578503E-2</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1">
         <v>0.10445100790015199</v>
       </c>
@@ -11056,18 +10862,14 @@
         <f t="shared" si="2"/>
         <v>1.4928106261510319</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.6569116955068095</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>7.89118950394498E-2</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5.4556196749841697E-2</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1">
         <v>9.96199434232522E-2</v>
       </c>
@@ -11082,18 +10884,14 @@
         <f t="shared" si="2"/>
         <v>1.439659323906084</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4464332145674867</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>7.7088692009505203E-2</v>
-      </c>
-      <c r="B78" s="1">
-        <v>5.1855350399013303E-2</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>0.102578529252704</v>
       </c>
@@ -11108,18 +10906,14 @@
         <f t="shared" si="2"/>
         <v>1.5370141834800319</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.4866101842206825</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>7.5318824106132803E-2</v>
-      </c>
-      <c r="B79" s="1">
-        <v>4.7557652238049301E-2</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1">
         <v>9.4721067441930096E-2</v>
       </c>
@@ -11134,18 +10928,14 @@
         <f t="shared" si="2"/>
         <v>1.4361599287861189</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.5837372233836369</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>7.3747227339960197E-2</v>
-      </c>
-      <c r="B80" s="1">
-        <v>3.75495371739085E-2</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="1">
         <v>9.6159239108907807E-2</v>
       </c>
@@ -11160,18 +10950,14 @@
         <f t="shared" si="2"/>
         <v>1.5085834861570617</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.9639983043839981</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>7.2012299901485194E-2</v>
-      </c>
-      <c r="B81" s="1">
-        <v>4.2866634297701801E-2</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1">
         <v>9.64486105646742E-2</v>
       </c>
@@ -11186,18 +10972,14 @@
         <f t="shared" si="2"/>
         <v>1.5590421125286411</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.6799149520667167</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>7.1463761107300502E-2</v>
-      </c>
-      <c r="B82" s="1">
-        <v>4.4486903747919297E-2</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="1">
         <v>9.4812103305017797E-2</v>
       </c>
@@ -11212,9 +10994,9 @@
         <f t="shared" si="2"/>
         <v>1.5497621568076665</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.606399975872516</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -11227,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11298,10 +11080,10 @@
         <v>300</v>
       </c>
       <c r="C3" s="1">
-        <v>1592</v>
+        <v>2450</v>
       </c>
       <c r="D3" s="1">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -11314,7 +11096,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" si="1">C3/(C3+D3)</f>
-        <v>0.64979591836734696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11352,10 +11134,10 @@
         <v>102</v>
       </c>
       <c r="C5" s="1">
-        <v>2652</v>
+        <v>2452</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -11368,7 +11150,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.92458521870286581</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11379,10 +11161,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="1">
-        <v>2756</v>
+        <v>2652</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -11395,7 +11177,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11433,10 +11215,10 @@
         <v>296</v>
       </c>
       <c r="C8" s="1">
-        <v>3782</v>
+        <v>3660</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -11449,7 +11231,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11487,10 +11269,10 @@
         <v>324</v>
       </c>
       <c r="C10" s="1">
-        <v>4556</v>
+        <v>4292</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -11503,7 +11285,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.94205443371378406</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11541,10 +11323,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="1">
-        <v>5700</v>
+        <v>5550</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -11557,7 +11339,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97368421052631582</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11568,10 +11350,10 @@
         <v>108</v>
       </c>
       <c r="C13" s="1">
-        <v>7140</v>
+        <v>6504</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -11584,7 +11366,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.91092436974789914</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11595,10 +11377,10 @@
         <v>1488</v>
       </c>
       <c r="C14" s="1">
-        <v>8010</v>
+        <v>7530</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -11611,7 +11393,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.94007490636704116</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11622,10 +11404,10 @@
         <v>1650</v>
       </c>
       <c r="C15" s="1">
-        <v>8742</v>
+        <v>8572</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -11638,7 +11420,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98055364905056053</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11649,10 +11431,10 @@
         <v>434</v>
       </c>
       <c r="C16" s="1">
-        <v>9506</v>
+        <v>9006</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -11665,7 +11447,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.94740164106879865</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11676,10 +11458,10 @@
         <v>2188</v>
       </c>
       <c r="C17" s="1">
-        <v>11130</v>
+        <v>10576</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -11692,7 +11474,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.95022461814914649</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11703,10 +11485,10 @@
         <v>600</v>
       </c>
       <c r="C18" s="1">
-        <v>12882</v>
+        <v>12450</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -11719,7 +11501,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.96646483465300415</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11730,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>14042</v>
+        <v>13668</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -11746,7 +11528,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9733656174334141</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11757,10 +11539,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>15500</v>
+        <v>15356</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -11773,7 +11555,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99070967741935478</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11784,10 +11566,10 @@
         <v>1060</v>
       </c>
       <c r="C21" s="1">
-        <v>17304</v>
+        <v>18360</v>
       </c>
       <c r="D21" s="1">
-        <v>1056</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -11800,7 +11582,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>0.94248366013071894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11811,10 +11593,10 @@
         <v>1640</v>
       </c>
       <c r="C22" s="1">
-        <v>20612</v>
+        <v>21212</v>
       </c>
       <c r="D22" s="1">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -11827,7 +11609,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>0.93469980047161261</v>
+        <v>0.96190821694177397</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11838,10 +11620,10 @@
         <v>336</v>
       </c>
       <c r="C23" s="1">
-        <v>22668</v>
+        <v>24356</v>
       </c>
       <c r="D23" s="1">
-        <v>2138</v>
+        <v>450</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -11854,7 +11636,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>0.91381117471579454</v>
+        <v>0.98185922760622435</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11865,10 +11647,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>29092</v>
+        <v>27422</v>
       </c>
       <c r="D24" s="1">
-        <v>664</v>
+        <v>2334</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -11881,7 +11663,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>0.97768517273827127</v>
+        <v>0.92156203790832103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11892,10 +11674,10 @@
         <v>882</v>
       </c>
       <c r="C25" s="1">
-        <v>37434</v>
+        <v>33538</v>
       </c>
       <c r="D25" s="1">
-        <v>396</v>
+        <v>4292</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -11908,7 +11690,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>0.98953211736716895</v>
+        <v>0.88654507005022465</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11919,10 +11701,10 @@
         <v>3016</v>
       </c>
       <c r="C26" s="1">
-        <v>40764</v>
+        <v>41008</v>
       </c>
       <c r="D26" s="1">
-        <v>3968</v>
+        <v>3724</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -11935,7 +11717,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>0.91129392828400246</v>
+        <v>0.91674863632299031</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11946,10 +11728,10 @@
         <v>6788</v>
       </c>
       <c r="C27" s="1">
-        <v>58324</v>
+        <v>57492</v>
       </c>
       <c r="D27" s="1">
-        <v>968</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
@@ -11962,7 +11744,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>0.9836740201038926</v>
+        <v>0.9696417729204615</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11973,10 +11755,10 @@
         <v>1826</v>
       </c>
       <c r="C28" s="1">
-        <v>83232</v>
+        <v>80872</v>
       </c>
       <c r="D28" s="1">
-        <v>578</v>
+        <v>2938</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
@@ -11989,7 +11771,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>0.99310344827586206</v>
+        <v>0.96494451736069686</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12000,10 +11782,10 @@
         <v>32716</v>
       </c>
       <c r="C29" s="1">
-        <v>113998</v>
+        <v>116864</v>
       </c>
       <c r="D29" s="1">
-        <v>3308</v>
+        <v>442</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
@@ -12016,7 +11798,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>0.97180024892162375</v>
+        <v>0.99623207679061598</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -12027,10 +11809,10 @@
         <v>39090</v>
       </c>
       <c r="C30" s="1">
-        <v>154132</v>
+        <v>155106</v>
       </c>
       <c r="D30" s="1">
-        <v>3874</v>
+        <v>2900</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
@@ -12043,7 +11825,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>0.97548194372365604</v>
+        <v>0.98164626659747101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12054,10 +11836,10 @@
         <v>13608</v>
       </c>
       <c r="C31" s="1">
-        <v>196704</v>
+        <v>196860</v>
       </c>
       <c r="D31" s="1">
-        <v>3552</v>
+        <v>3396</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
@@ -12070,7 +11852,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>0.98226270373921376</v>
+        <v>0.98304170661553214</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -12081,10 +11863,10 @@
         <v>37814</v>
       </c>
       <c r="C32" s="1">
-        <v>229030</v>
+        <v>210248</v>
       </c>
       <c r="D32" s="1">
-        <v>4742</v>
+        <v>23524</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
@@ -12097,7 +11879,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>0.97971527813425041</v>
+        <v>0.89937203771195862</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12108,10 +11890,10 @@
         <v>30782</v>
       </c>
       <c r="C33" s="1">
-        <v>278382</v>
+        <v>253508</v>
       </c>
       <c r="D33" s="1">
-        <v>7308</v>
+        <v>32182</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
@@ -12124,7 +11906,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>0.97441982568518326</v>
+        <v>0.88735342504112846</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -12135,10 +11917,10 @@
         <v>7352</v>
       </c>
       <c r="C34" s="1">
-        <v>332928</v>
+        <v>321026</v>
       </c>
       <c r="D34" s="1">
-        <v>24078</v>
+        <v>35980</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
@@ -12151,7 +11933,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>0.9325557553654561</v>
+        <v>0.89921738010005436</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -12162,10 +11944,10 @@
         <v>9386</v>
       </c>
       <c r="C35" s="1">
-        <v>452576</v>
+        <v>390752</v>
       </c>
       <c r="D35" s="1">
-        <v>22834</v>
+        <v>84658</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
@@ -12178,7 +11960,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>0.95196987863107629</v>
+        <v>0.82192633726678022</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12189,10 +11971,10 @@
         <v>104052</v>
       </c>
       <c r="C36" s="1">
-        <v>552914</v>
+        <v>487400</v>
       </c>
       <c r="D36" s="1">
-        <v>13342</v>
+        <v>78856</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
@@ -12205,7 +11987,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>0.97643821875618098</v>
+        <v>0.86074143143737103</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -12216,10 +11998,10 @@
         <v>53946</v>
       </c>
       <c r="C37" s="1">
-        <v>703186</v>
+        <v>593844</v>
       </c>
       <c r="D37" s="1">
-        <v>6620</v>
+        <v>115962</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
@@ -12232,7 +12014,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>0.99067350797260101</v>
+        <v>0.8366285999273041</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -12243,10 +12025,10 @@
         <v>118312</v>
       </c>
       <c r="C38" s="1">
-        <v>888272</v>
+        <v>810616</v>
       </c>
       <c r="D38" s="1">
-        <v>1920</v>
+        <v>79576</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
@@ -12259,7 +12041,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>0.99784316192461853</v>
+        <v>0.91060804860075129</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -12270,10 +12052,10 @@
         <v>18270</v>
       </c>
       <c r="C39" s="1">
-        <v>1131048</v>
+        <v>1013728</v>
       </c>
       <c r="D39" s="1">
-        <v>4242</v>
+        <v>121562</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
@@ -12286,7 +12068,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>0.996263509764025</v>
+        <v>0.8929242748548829</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -12297,10 +12079,10 @@
         <v>107876</v>
       </c>
       <c r="C40" s="1">
-        <v>1352492</v>
+        <v>1381728</v>
       </c>
       <c r="D40" s="1">
-        <v>60040</v>
+        <v>30804</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
@@ -12313,7 +12095,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>0.95749476826011726</v>
+        <v>0.97819235245643987</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -12324,10 +12106,10 @@
         <v>21846</v>
       </c>
       <c r="C41" s="1">
-        <v>1765794</v>
+        <v>1742270</v>
       </c>
       <c r="D41" s="1">
-        <v>49962</v>
+        <v>73486</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
@@ -12340,7 +12122,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>0.97248418840416884</v>
+        <v>0.95952870319580386</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -12351,10 +12133,10 @@
         <v>101040</v>
       </c>
       <c r="C42" s="1">
-        <v>2242558</v>
+        <v>2151402</v>
       </c>
       <c r="D42" s="1">
-        <v>8942</v>
+        <v>100098</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
@@ -12367,7 +12149,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>0.99602842549411508</v>
+        <v>0.95554163890739507</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12378,10 +12160,10 @@
         <v>382866</v>
       </c>
       <c r="C43" s="1">
-        <v>2596968</v>
+        <v>2366826</v>
       </c>
       <c r="D43" s="1">
-        <v>6414</v>
+        <v>236556</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
@@ -12394,7 +12176,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>0.99753628165209718</v>
+        <v>0.90913511732047003</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -12405,10 +12187,10 @@
         <v>375376</v>
       </c>
       <c r="C44" s="1">
-        <v>3015488</v>
+        <v>2710104</v>
       </c>
       <c r="D44" s="1">
-        <v>6894</v>
+        <v>312278</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
@@ -12421,7 +12203,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>0.9977190176489934</v>
+        <v>0.89667818296959156</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -12432,10 +12214,10 @@
         <v>1100668</v>
       </c>
       <c r="C45" s="1">
-        <v>3439516</v>
+        <v>3103384</v>
       </c>
       <c r="D45" s="1">
-        <v>51776</v>
+        <v>387908</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
@@ -12448,7 +12230,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="1"/>
-        <v>0.98516996000334545</v>
+        <v>0.88889270791443398</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -12459,10 +12241,10 @@
         <v>437150</v>
       </c>
       <c r="C46" s="1">
-        <v>3773438</v>
+        <v>3186558</v>
       </c>
       <c r="D46" s="1">
-        <v>34914</v>
+        <v>621794</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
@@ -12475,7 +12257,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="1"/>
-        <v>0.99083225500163852</v>
+        <v>0.83672885279511977</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -12486,10 +12268,10 @@
         <v>687912</v>
       </c>
       <c r="C47" s="1">
-        <v>4180014</v>
+        <v>4161230</v>
       </c>
       <c r="D47" s="1">
-        <v>8148</v>
+        <v>26932</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
@@ -12502,7 +12284,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="1"/>
-        <v>0.99805451651583676</v>
+        <v>0.99356949420772167</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -12513,10 +12295,10 @@
         <v>1309828</v>
       </c>
       <c r="C48" s="1">
-        <v>4676442</v>
+        <v>4550598</v>
       </c>
       <c r="D48" s="1">
-        <v>8618</v>
+        <v>134462</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
@@ -12529,7 +12311,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" si="1"/>
-        <v>0.99816053583091791</v>
+        <v>0.97129983394022701</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -12540,10 +12322,10 @@
         <v>311590</v>
       </c>
       <c r="C49" s="1">
-        <v>5241904</v>
+        <v>5076550</v>
       </c>
       <c r="D49" s="1">
-        <v>18238</v>
+        <v>183592</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
@@ -12556,7 +12338,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>0.99653279322117161</v>
+        <v>0.96509752018101413</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -12567,10 +12349,10 @@
         <v>1651798</v>
       </c>
       <c r="C50" s="1">
-        <v>5912248</v>
+        <v>5812862</v>
       </c>
       <c r="D50" s="1">
-        <v>14542</v>
+        <v>113928</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
@@ -12583,7 +12365,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>0.99754639526624023</v>
+        <v>0.98077745288765084</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -12594,10 +12376,10 @@
         <v>79478</v>
       </c>
       <c r="C51" s="1">
-        <v>6700424</v>
+        <v>6472428</v>
       </c>
       <c r="D51" s="1">
-        <v>15448</v>
+        <v>243444</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
@@ -12610,7 +12392,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>0.99769977748235816</v>
+        <v>0.96375094701030628</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -12621,10 +12403,10 @@
         <v>1926046</v>
       </c>
       <c r="C52" s="1">
-        <v>7423134</v>
+        <v>7331876</v>
       </c>
       <c r="D52" s="1">
-        <v>43422</v>
+        <v>134680</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
@@ -12637,7 +12419,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>0.99418446737692723</v>
+        <v>0.98196223265451965</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -12648,10 +12430,10 @@
         <v>310346</v>
       </c>
       <c r="C53" s="1">
-        <v>8424592</v>
+        <v>7743308</v>
       </c>
       <c r="D53" s="1">
-        <v>17338</v>
+        <v>698622</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
@@ -12664,7 +12446,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>0.99794620424476388</v>
+        <v>0.91724380562264796</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -12675,10 +12457,10 @@
         <v>2785368</v>
       </c>
       <c r="C54" s="1">
-        <v>9576288</v>
+        <v>9479238</v>
       </c>
       <c r="D54" s="1">
-        <v>67842</v>
+        <v>164892</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
@@ -12691,7 +12473,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>0.99296546189236357</v>
+        <v>0.98290234577924607</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -12702,10 +12484,10 @@
         <v>3117574</v>
       </c>
       <c r="C55" s="1">
-        <v>10468648</v>
+        <v>10076648</v>
       </c>
       <c r="D55" s="1">
-        <v>71114</v>
+        <v>463114</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
@@ -12718,7 +12500,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>0.99325278882008916</v>
+        <v>0.95606029813576432</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -12729,10 +12511,10 @@
         <v>3225934</v>
       </c>
       <c r="C56" s="1">
-        <v>11584056</v>
+        <v>11389646</v>
       </c>
       <c r="D56" s="1">
-        <v>81584</v>
+        <v>275994</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
@@ -12745,7 +12527,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>0.99300647028367073</v>
+        <v>0.97634128946204413</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -12756,10 +12538,10 @@
         <v>1041500</v>
       </c>
       <c r="C57" s="1">
-        <v>12807252</v>
+        <v>12665814</v>
       </c>
       <c r="D57" s="1">
-        <v>177960</v>
+        <v>319398</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
@@ -12772,7 +12554,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>0.9862951794703082</v>
+        <v>0.97540294297852048</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -12783,10 +12565,10 @@
         <v>1408636</v>
       </c>
       <c r="C58" s="1">
-        <v>14649978</v>
+        <v>14059392</v>
       </c>
       <c r="D58" s="1">
-        <v>15092</v>
+        <v>605678</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1">
@@ -12799,7 +12581,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="1"/>
-        <v>0.99897088796712186</v>
+        <v>0.95869927658033682</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -12810,10 +12592,10 @@
         <v>1783770</v>
       </c>
       <c r="C59" s="1">
-        <v>16426092</v>
+        <v>15559876</v>
       </c>
       <c r="D59" s="1">
-        <v>289740</v>
+        <v>1155956</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
@@ -12826,7 +12608,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="1"/>
-        <v>0.98266673175466224</v>
+        <v>0.93084663688890867</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -12837,10 +12619,10 @@
         <v>1608670</v>
       </c>
       <c r="C60" s="1">
-        <v>19130222</v>
+        <v>18248546</v>
       </c>
       <c r="D60" s="1">
-        <v>295834</v>
+        <v>1177510</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -12853,7 +12635,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="1"/>
-        <v>0.98477127832844713</v>
+        <v>0.93938501978991518</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -12864,10 +12646,10 @@
         <v>4089178</v>
       </c>
       <c r="C61" s="1">
-        <v>22454250</v>
+        <v>22242508</v>
       </c>
       <c r="D61" s="1">
-        <v>151020</v>
+        <v>362762</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
@@ -12880,7 +12662,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="1"/>
-        <v>0.99331925696972434</v>
+        <v>0.98395232616111195</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -12889,12 +12671,6 @@
       </c>
       <c r="B62" s="1">
         <v>8510600</v>
-      </c>
-      <c r="C62" s="1">
-        <v>26415074</v>
-      </c>
-      <c r="D62" s="1">
-        <v>133182</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -12905,9 +12681,9 @@
         <f t="shared" si="0"/>
         <v>0.67942903669453847</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.9949833992861904</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -12917,12 +12693,8 @@
       <c r="B63" s="1">
         <v>5708900</v>
       </c>
-      <c r="C63" s="1">
-        <v>30975320</v>
-      </c>
-      <c r="D63" s="1">
-        <v>110880</v>
-      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
         <f>'term metric'!$F63</f>
@@ -12932,9 +12704,9 @@
         <f t="shared" si="0"/>
         <v>0.81635259375542846</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.99643314396741967</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -12944,12 +12716,8 @@
       <c r="B64" s="1">
         <v>1860242</v>
       </c>
-      <c r="C64" s="1">
-        <v>36211008</v>
-      </c>
-      <c r="D64" s="1">
-        <v>180048</v>
-      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
         <f>'term metric'!$F64</f>
@@ -12959,9 +12727,9 @@
         <f t="shared" si="0"/>
         <v>0.94888189009958934</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.99505241068025063</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -12971,12 +12739,8 @@
       <c r="B65" s="1">
         <v>5634302</v>
       </c>
-      <c r="C65" s="1">
-        <v>42726254</v>
-      </c>
-      <c r="D65" s="1">
-        <v>104226</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
         <f>'term metric'!$F65</f>
@@ -12986,9 +12750,9 @@
         <f t="shared" si="0"/>
         <v>0.86845111238538542</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.9975665460671933</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -12998,12 +12762,8 @@
       <c r="B66" s="1">
         <v>18416024</v>
       </c>
-      <c r="C66" s="1">
-        <v>49626702</v>
-      </c>
-      <c r="D66" s="1">
-        <v>506778</v>
-      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
         <f>'term metric'!$F66</f>
@@ -13013,9 +12773,9 @@
         <f t="shared" si="0"/>
         <v>0.63266017040907596</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>0.98989142584955203</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13025,12 +12785,8 @@
       <c r="B67" s="1">
         <v>11082470</v>
       </c>
-      <c r="C67" s="1">
-        <v>58914904</v>
-      </c>
-      <c r="D67" s="1">
-        <v>459826</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1">
         <f>'term metric'!$F67</f>
@@ -13040,9 +12796,9 @@
         <f t="shared" ref="G67:G81" si="2">A67/(A67+B67)</f>
         <v>0.81334702490436583</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="1" t="e">
         <f t="shared" ref="H67:H81" si="3">C67/(C67+D67)</f>
-        <v>0.99225552688829066</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -13052,12 +12808,8 @@
       <c r="B68" s="1">
         <v>11427828</v>
       </c>
-      <c r="C68" s="1">
-        <v>69098588</v>
-      </c>
-      <c r="D68" s="1">
-        <v>348634</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
         <f>'term metric'!$F68</f>
@@ -13067,9 +12819,9 @@
         <f t="shared" si="2"/>
         <v>0.83544585843908914</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99497987118908804</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -13079,12 +12831,8 @@
       <c r="B69" s="1">
         <v>11016268</v>
       </c>
-      <c r="C69" s="1">
-        <v>80022452</v>
-      </c>
-      <c r="D69" s="1">
-        <v>303954</v>
-      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
         <f>'term metric'!$F69</f>
@@ -13094,9 +12842,9 @@
         <f t="shared" si="2"/>
         <v>0.86285620696138199</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99621601394689563</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -13106,12 +12854,8 @@
       <c r="B70" s="1">
         <v>32417010</v>
       </c>
-      <c r="C70" s="1">
-        <v>92593282</v>
-      </c>
-      <c r="D70" s="1">
-        <v>403810</v>
-      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
         <f>'term metric'!$F70</f>
@@ -13121,9 +12865,9 @@
         <f t="shared" si="2"/>
         <v>0.651419100287566</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99565782121445257</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -13133,12 +12877,8 @@
       <c r="B71" s="1">
         <v>38861302</v>
       </c>
-      <c r="C71" s="1">
-        <v>106927122</v>
-      </c>
-      <c r="D71" s="1">
-        <v>433560</v>
-      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
         <f>'term metric'!$F71</f>
@@ -13148,9 +12888,9 @@
         <f t="shared" si="2"/>
         <v>0.63803041042529895</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99596165009458493</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -13160,12 +12900,8 @@
       <c r="B72" s="1">
         <v>41104852</v>
       </c>
-      <c r="C72" s="1">
-        <v>123155392</v>
-      </c>
-      <c r="D72" s="1">
-        <v>243380</v>
-      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1">
         <f>'term metric'!$F72</f>
@@ -13175,9 +12911,9 @@
         <f t="shared" si="2"/>
         <v>0.66689415677491504</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99802769512163381</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -13187,12 +12923,8 @@
       <c r="B73" s="1">
         <v>32587298</v>
       </c>
-      <c r="C73" s="1">
-        <v>140342226</v>
-      </c>
-      <c r="D73" s="1">
-        <v>590286</v>
-      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
         <f>'term metric'!$F73</f>
@@ -13202,9 +12934,9 @@
         <f t="shared" si="2"/>
         <v>0.76877373760286061</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99581156972494744</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -13214,12 +12946,8 @@
       <c r="B74" s="1">
         <v>6031236</v>
       </c>
-      <c r="C74" s="1">
-        <v>159786040</v>
-      </c>
-      <c r="D74" s="1">
-        <v>958322</v>
-      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
         <f>'term metric'!$F74</f>
@@ -13229,9 +12957,9 @@
         <f t="shared" si="2"/>
         <v>0.9624793310013573</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99403822325040547</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -13241,12 +12969,8 @@
       <c r="B75" s="1">
         <v>62572306</v>
       </c>
-      <c r="C75" s="1">
-        <v>181915916</v>
-      </c>
-      <c r="D75" s="1">
-        <v>942090</v>
-      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1">
         <f>'term metric'!$F75</f>
@@ -13256,9 +12980,9 @@
         <f t="shared" si="2"/>
         <v>0.6578093168094592</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99484796963169331</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -13268,12 +12992,8 @@
       <c r="B76" s="1">
         <v>43131634</v>
       </c>
-      <c r="C76" s="1">
-        <v>206829886</v>
-      </c>
-      <c r="D76" s="1">
-        <v>947924</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
         <f>'term metric'!$F76</f>
@@ -13283,9 +13003,9 @@
         <f t="shared" si="2"/>
         <v>0.79241462791430906</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99543779963798829</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -13295,12 +13015,8 @@
       <c r="B77" s="1">
         <v>19908070</v>
       </c>
-      <c r="C77" s="1">
-        <v>241664164</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1493078</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1">
         <f>'term metric'!$F77</f>
@@ -13310,9 +13026,9 @@
         <f t="shared" si="2"/>
         <v>0.91812676506669699</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99385961944740264</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -13322,12 +13038,8 @@
       <c r="B78" s="1">
         <v>79818796</v>
       </c>
-      <c r="C78" s="1">
-        <v>274284150</v>
-      </c>
-      <c r="D78" s="1">
-        <v>794660</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1">
         <f>'term metric'!$F78</f>
@@ -13337,9 +13049,9 @@
         <f t="shared" si="2"/>
         <v>0.70983298931677075</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99711115516313309</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -13349,12 +13061,8 @@
       <c r="B79" s="1">
         <v>96802214</v>
       </c>
-      <c r="C79" s="1">
-        <v>298582224</v>
-      </c>
-      <c r="D79" s="1">
-        <v>898106</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1">
         <f>'term metric'!$F79</f>
@@ -13364,9 +13072,9 @@
         <f t="shared" si="2"/>
         <v>0.67676603668761814</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99700111857095919</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -13376,12 +13084,8 @@
       <c r="B80" s="1">
         <v>27503826</v>
       </c>
-      <c r="C80" s="1">
-        <v>305989764</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1188438</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1">
         <f>'term metric'!$F80</f>
@@ -13391,9 +13095,9 @@
         <f t="shared" si="2"/>
         <v>0.91046296312392638</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.996131112193957</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -13403,12 +13107,8 @@
       <c r="B81" s="1">
         <v>25363472</v>
       </c>
-      <c r="C81" s="1">
-        <v>289801894</v>
-      </c>
-      <c r="D81" s="1">
-        <v>917656</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1">
         <f>'term metric'!$F81</f>
@@ -13418,9 +13118,9 @@
         <f t="shared" si="2"/>
         <v>0.91275622158881298</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>0.99684350089287077</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -13433,8 +13133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13465,7 +13165,7 @@
         <v>0.17350922436024499</v>
       </c>
       <c r="C2" s="1">
-        <v>8.7740527673080701E-2</v>
+        <v>7.28387224756991E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13477,7 +13177,7 @@
         <v>0.18645802571881101</v>
       </c>
       <c r="C3" s="1">
-        <v>0.10346586485543199</v>
+        <v>9.0056108888829201E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13489,7 +13189,7 @@
         <v>0.172843897394204</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>8.5437078927074694E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13501,7 +13201,7 @@
         <v>0.19826112468334001</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>8.1414571120677501E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13513,7 +13213,7 @@
         <v>0.194076542782394</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>0.124182440751</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13525,7 +13225,7 @@
         <v>0.197326494644638</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>0.126304778731502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -13537,7 +13237,7 @@
         <v>0.25089963392193698</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.19973429190543401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13549,7 +13249,7 @@
         <v>0.25330025320714</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>0.17854257214000499</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13561,7 +13261,7 @@
         <v>0.25330025320714</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>0.17854257214000499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13573,7 +13273,7 @@
         <v>0.27040983606557301</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>0.21073770491803201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13585,7 +13285,7 @@
         <v>0.269738652332425</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.20957439490571</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -13597,7 +13297,7 @@
         <v>0.266468137362396</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>0.19817639577211499</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -13609,7 +13309,7 @@
         <v>0.27883357036502798</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>0.25198472314030201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13621,7 +13321,7 @@
         <v>0.29633301951672197</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>0.25080373775614401</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13633,7 +13333,7 @@
         <v>0.30272681085788899</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>0.284680650312091</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13645,7 +13345,7 @@
         <v>0.31607026737104899</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>0.27577593613092699</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,7 +13357,7 @@
         <v>0.36236903810971599</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>0.34188822180422002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13669,7 +13369,7 @@
         <v>0.41869367899405102</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>0.37043376424485303</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13681,7 +13381,7 @@
         <v>0.428077176460887</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>0.37688202013157002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13693,7 +13393,7 @@
         <v>0.43834435651811698</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>0.39177909204498101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13705,7 +13405,7 @@
         <v>0.43562561455260501</v>
       </c>
       <c r="C22" s="1">
-        <v>5.8823017551187804E-3</v>
+        <v>0.38176035058866498</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13717,7 +13417,7 @@
         <v>0.47155488993760197</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>0.43512053582245103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13729,7 +13429,7 @@
         <v>0.48599835066535502</v>
       </c>
       <c r="C24" s="1">
-        <v>1.20498383659421E-2</v>
+        <v>0.45259692790225198</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13741,7 +13441,7 @@
         <v>0.50382285334603605</v>
       </c>
       <c r="C25" s="1">
-        <v>2.1395867500835102E-2</v>
+        <v>0.46113199880896799</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13753,7 +13453,7 @@
         <v>0.50254733503357396</v>
       </c>
       <c r="C26" s="1">
-        <v>2.5163298467630799E-2</v>
+        <v>0.49706863109073601</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13765,7 +13465,7 @@
         <v>0.51212398805044002</v>
       </c>
       <c r="C27" s="1">
-        <v>8.6102984622030698E-3</v>
+        <v>0.54240480951387604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,7 +13477,7 @@
         <v>0.56970271152769303</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2266057454800699E-2</v>
+        <v>0.58162140032087495</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -13789,7 +13489,7 @@
         <v>0.56166488466063902</v>
       </c>
       <c r="C29" s="1">
-        <v>1.74400046507396E-2</v>
+        <v>0.61417284806549</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -13801,7 +13501,7 @@
         <v>0.49287577363122198</v>
       </c>
       <c r="C30" s="1">
-        <v>1.6530311354153501E-2</v>
+        <v>0.63636497673116499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13813,7 +13513,7 @@
         <v>0.59856659402287304</v>
       </c>
       <c r="C31" s="1">
-        <v>1.33793214523731E-2</v>
+        <v>0.64276121381844098</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13825,7 +13525,7 @@
         <v>0.57691981359053202</v>
       </c>
       <c r="C32" s="1">
-        <v>1.2460772123712599E-2</v>
+        <v>0.63923438626589901</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13837,7 +13537,7 @@
         <v>0.55946850007289495</v>
       </c>
       <c r="C33" s="1">
-        <v>1.16645753203184E-2</v>
+        <v>0.55831699635578003</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13849,7 +13549,7 @@
         <v>0.60309721150821005</v>
       </c>
       <c r="C34" s="1">
-        <v>1.33176507327415E-2</v>
+        <v>0.62299727561147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13861,7 +13561,7 @@
         <v>0.58321174668481002</v>
       </c>
       <c r="C35" s="1">
-        <v>7.4498137082432596E-3</v>
+        <v>0.55102946829084798</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13873,7 +13573,7 @@
         <v>0.583371827966777</v>
       </c>
       <c r="C36" s="1">
-        <v>2.23740561704765E-3</v>
+        <v>0.37016921784024398</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13885,7 +13585,7 @@
         <v>0.52742463234979597</v>
       </c>
       <c r="C37" s="1">
-        <v>4.8762644320637302E-3</v>
+        <v>0.47196247452739398</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13897,7 +13597,7 @@
         <v>0.53868578472418105</v>
       </c>
       <c r="C38" s="1">
-        <v>6.1804091586506599E-3</v>
+        <v>0.58500888901721504</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13909,7 +13609,7 @@
         <v>0.57715221754243995</v>
       </c>
       <c r="C39" s="1">
-        <v>6.0266735557529504E-3</v>
+        <v>0.62705193252929203</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13921,7 +13621,7 @@
         <v>0.57129256303529796</v>
       </c>
       <c r="C40" s="1">
-        <v>7.6311946077978702E-3</v>
+        <v>0.52296242838960305</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13933,7 +13633,7 @@
         <v>0.53395398565390595</v>
       </c>
       <c r="C41" s="1">
-        <v>7.1848581467490501E-3</v>
+        <v>0.51206767850430901</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13945,7 +13645,7 @@
         <v>0.52858569805389299</v>
       </c>
       <c r="C42" s="1">
-        <v>1.50734389537639E-3</v>
+        <v>0.51989792627436804</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13957,7 +13657,7 @@
         <v>0.503794642076828</v>
       </c>
       <c r="C43" s="1">
-        <v>1.6668484258173201E-3</v>
+        <v>0.50478629682117704</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13969,7 +13669,7 @@
         <v>0.493555337557956</v>
       </c>
       <c r="C44" s="1">
-        <v>1.67670132154811E-3</v>
+        <v>0.43068426014634897</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13981,7 +13681,7 @@
         <v>0.51795871617092903</v>
       </c>
       <c r="C45" s="1">
-        <v>1.9321347036879901E-3</v>
+        <v>0.49188191866484299</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13993,7 +13693,7 @@
         <v>0.43607127584861599</v>
       </c>
       <c r="C46" s="1">
-        <v>7.3439989464144301E-4</v>
+        <v>0.44285116150609</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -14005,7 +13705,7 @@
         <v>0.496215785668354</v>
       </c>
       <c r="C47" s="1">
-        <v>3.9131624794886902E-4</v>
+        <v>0.52740284437046403</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -14017,7 +13717,7 @@
         <v>0.49440607079951299</v>
       </c>
       <c r="C48" s="1">
-        <v>4.85133150724887E-4</v>
+        <v>0.53102389627508295</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -14029,7 +13729,7 @@
         <v>0.51241787319146204</v>
       </c>
       <c r="C49" s="1">
-        <v>7.59083304570237E-4</v>
+        <v>0.51572603555028296</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -14041,7 +13741,7 @@
         <v>0.50329986921442205</v>
       </c>
       <c r="C50" s="1">
-        <v>8.4835060898096699E-4</v>
+        <v>0.53575830058040597</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -14053,7 +13753,7 @@
         <v>0.53322871023666196</v>
       </c>
       <c r="C51" s="1">
-        <v>9.2679074324905901E-4</v>
+        <v>0.55329168280743801</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,7 +13765,7 @@
         <v>0.54125396512011703</v>
       </c>
       <c r="C52" s="1">
-        <v>9.4501760240279402E-4</v>
+        <v>0.57466501781127899</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -14077,7 +13777,7 @@
         <v>0.56628563313790203</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0599730311189801E-3</v>
+        <v>0.58109949486025902</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -14089,7 +13789,7 @@
         <v>0.574037328421098</v>
       </c>
       <c r="C54" s="1">
-        <v>1.25286915110603E-3</v>
+        <v>0.63439664770309701</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -14101,7 +13801,7 @@
         <v>0.53117449325338495</v>
       </c>
       <c r="C55" s="1">
-        <v>9.5671493003704499E-4</v>
+        <v>0.62562372933501098</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +13813,7 @@
         <v>0.57519563121039397</v>
       </c>
       <c r="C56" s="1">
-        <v>3.6640043049624202E-4</v>
+        <v>0.609879326137584</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -14125,7 +13825,7 @@
         <v>0.53532461705878198</v>
       </c>
       <c r="C57" s="1">
-        <v>7.60535431039097E-4</v>
+        <v>0.60450187140154499</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -14137,7 +13837,7 @@
         <v>0.52429106198577902</v>
       </c>
       <c r="C58" s="1">
-        <v>5.5879218727469798E-3</v>
+        <v>0.59840688013594101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14149,7 +13849,7 @@
         <v>0.53542315246493399</v>
       </c>
       <c r="C59" s="1">
-        <v>6.4924451686347202E-3</v>
+        <v>0.58668276522082097</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14161,7 +13861,7 @@
         <v>0.52161546234488099</v>
       </c>
       <c r="C60" s="1">
-        <v>5.7899302096547202E-3</v>
+        <v>0.61710476299142203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14173,7 +13873,7 @@
         <v>0.53226194334593202</v>
       </c>
       <c r="C61" s="1">
-        <v>1.3314392194629201E-3</v>
+        <v>0.55827687137350701</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14185,7 +13885,7 @@
         <v>0.50612146647670897</v>
       </c>
       <c r="C62" s="1">
-        <v>1.2438972126810101E-3</v>
+        <v>0.55580466366956405</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14196,9 +13896,6 @@
       <c r="B63" s="1">
         <v>0.53074253329451804</v>
       </c>
-      <c r="C63" s="1">
-        <v>1.2469361941132701E-3</v>
-      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -14208,11 +13905,8 @@
       <c r="B64" s="1">
         <v>0.51155092480497</v>
       </c>
-      <c r="C64" s="1">
-        <v>1.2130934591321799E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>'temporal sim'!F65</f>
         <v>1993</v>
@@ -14220,11 +13914,8 @@
       <c r="B65" s="1">
         <v>0.51750276197150802</v>
       </c>
-      <c r="C65" s="1">
-        <v>8.6579330591087704E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>'temporal sim'!F66</f>
         <v>1994</v>
@@ -14232,11 +13923,8 @@
       <c r="B66" s="1">
         <v>0.51698732837587702</v>
       </c>
-      <c r="C66" s="1">
-        <v>1.0037327254056199E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>'temporal sim'!F67</f>
         <v>1995</v>
@@ -14244,11 +13932,8 @@
       <c r="B67" s="1">
         <v>0.54532317218609905</v>
       </c>
-      <c r="C67" s="1">
-        <v>6.8324927947429703E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>'temporal sim'!F68</f>
         <v>1996</v>
@@ -14256,11 +13941,8 @@
       <c r="B68" s="1">
         <v>0.55219694577872203</v>
       </c>
-      <c r="C68" s="1">
-        <v>6.8801691047893699E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>'temporal sim'!F69</f>
         <v>1997</v>
@@ -14268,11 +13950,8 @@
       <c r="B69" s="1">
         <v>0.57130938741362802</v>
       </c>
-      <c r="C69" s="1">
-        <v>3.0969142055702401E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>'temporal sim'!F70</f>
         <v>1998</v>
@@ -14280,11 +13959,8 @@
       <c r="B70" s="1">
         <v>0.56780279197050398</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.4763052035855799E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>'temporal sim'!F71</f>
         <v>1999</v>
@@ -14292,11 +13968,8 @@
       <c r="B71" s="1">
         <v>0.55463932336792798</v>
       </c>
-      <c r="C71" s="1">
-        <v>3.5599193324727698E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>'temporal sim'!F72</f>
         <v>2000</v>
@@ -14304,11 +13977,8 @@
       <c r="B72" s="1">
         <v>0.56239772288190804</v>
       </c>
-      <c r="C72" s="1">
-        <v>5.6429250045324599E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>'temporal sim'!F73</f>
         <v>2001</v>
@@ -14316,11 +13986,8 @@
       <c r="B73" s="1">
         <v>0.53381507724486899</v>
       </c>
-      <c r="C73" s="1">
-        <v>8.8124718710414797E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>'temporal sim'!F74</f>
         <v>2002</v>
@@ -14328,11 +13995,8 @@
       <c r="B74" s="1">
         <v>0.51124298409523605</v>
       </c>
-      <c r="C74" s="1">
-        <v>8.6813468232797397E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>'temporal sim'!F75</f>
         <v>2003</v>
@@ -14340,11 +14004,8 @@
       <c r="B75" s="1">
         <v>0.51184446834598096</v>
       </c>
-      <c r="C75" s="1">
-        <v>1.13084632043464E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>'temporal sim'!F76</f>
         <v>2004</v>
@@ -14352,11 +14013,8 @@
       <c r="B76" s="1">
         <v>0.56495054626622998</v>
       </c>
-      <c r="C76" s="1">
-        <v>1.0223658837036501E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>'temporal sim'!F77</f>
         <v>2005</v>
@@ -14364,11 +14022,8 @@
       <c r="B77" s="1">
         <v>0.54115134331472803</v>
       </c>
-      <c r="C77" s="1">
-        <v>5.5191090678283401E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>'temporal sim'!F78</f>
         <v>2006</v>
@@ -14376,11 +14031,8 @@
       <c r="B78" s="1">
         <v>0.55856241787934902</v>
       </c>
-      <c r="C78" s="1">
-        <v>5.9436958426729899E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>'temporal sim'!F79</f>
         <v>2007</v>
@@ -14388,11 +14040,8 @@
       <c r="B79" s="1">
         <v>0.52383671082041094</v>
       </c>
-      <c r="C79" s="1">
-        <v>9.9208584399920399E-5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>'temporal sim'!F80</f>
         <v>2008</v>
@@ -14400,11 +14049,8 @@
       <c r="B80" s="1">
         <v>0.54872353805919105</v>
       </c>
-      <c r="C80" s="1">
-        <v>1.3125876135049901E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>'temporal sim'!F81</f>
         <v>2009</v>
@@ -14412,19 +14058,13 @@
       <c r="B81" s="1">
         <v>0.56888976010049397</v>
       </c>
-      <c r="C81" s="1">
-        <v>1.47931298027388E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2010</v>
       </c>
       <c r="B82" s="1">
         <v>0.55488525764831098</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1.8955522528070899E-4</v>
       </c>
     </row>
   </sheetData>
